--- a/biology/Mycologie/Plectosphaerellaceae/Plectosphaerellaceae.xlsx
+++ b/biology/Mycologie/Plectosphaerellaceae/Plectosphaerellaceae.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Les Plectosphaerellaceae sont une famille de champignon ascomycètes de la classe des Sordariomycetes. 
 Cette famille comprend plusieurs genres de champignons phytopathogènes dont le plus important sur le plan économique est Verticillium.
@@ -512,9 +524,11 @@
           <t>Liste des genres</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>Selon Catalogue of Life                                   (16 octobre 2014)[1] :
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>Selon Catalogue of Life                                   (16 octobre 2014) :
 genre Gibellulopsis
 genre Lectera
 genre Musicillium
@@ -548,9 +562,11 @@
           <t>Liste des genres, espèces et non-classés</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Selon NCBI  (16 octobre 2014)[2] :
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Selon NCBI  (16 octobre 2014) :
 genre Lectera
 Lectera colletotrichoides
 Lectera longa
